--- a/day-12.xlsx
+++ b/day-12.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data anylatics\excel\day12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD275276-6A5E-461F-8393-66D9399B3EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB187276-EFB7-487C-9605-018BD24A8211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="2" r:id="rId1"/>
-    <sheet name="dAY12 " sheetId="14" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
+    <sheet name="v_lookup" sheetId="14" r:id="rId2"/>
+    <sheet name="H_lookup" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>ARC</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>sales with v lookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales </t>
   </si>
 </sst>
 </file>
@@ -683,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A40DD5A-2EA0-453B-B205-8D25B7B6EF10}">
   <dimension ref="D5:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="4:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
@@ -944,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF34E5E-CCA7-4FD8-BF13-81DDC8C161DF}">
   <dimension ref="D5:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,9 +959,10 @@
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:10" x14ac:dyDescent="0.3">
@@ -969,13 +976,13 @@
         <v>38</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>44</v>
@@ -985,22 +992,28 @@
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>39</v>
+      <c r="E6" s="8" t="str">
+        <f xml:space="preserve"> HLOOKUP(E5,$D17:$J19,2,FALSE)</f>
+        <v>automotive sq, near tp road , 400001</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" ref="F6:H6" si="0" xml:space="preserve"> HLOOKUP(F5,$D17:$J19,2,FALSE)</f>
+        <v>offline</v>
       </c>
       <c r="G6" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H6" s="8">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="I6" s="8">
+        <f xml:space="preserve"> HLOOKUP(I5,$D17:$J19,2,FALSE)</f>
         <v>100000</v>
       </c>
       <c r="J6" s="8">
+        <f t="shared" ref="J6" si="1" xml:space="preserve"> HLOOKUP(J5,$D17:$J19,2,FALSE)</f>
         <v>700</v>
       </c>
     </row>
@@ -1008,23 +1021,29 @@
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
+      <c r="E7" s="8" t="str">
+        <f t="shared" ref="E7:F7" si="2" xml:space="preserve"> HLOOKUP(E5,$D17:$J19,3,)</f>
+        <v>nandanvan</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>online</v>
       </c>
       <c r="G7" s="8">
-        <v>2</v>
+        <f xml:space="preserve"> HLOOKUP(G5,$D17:$J19,3,)</f>
+        <v>1</v>
       </c>
       <c r="H7" s="8">
-        <v>1000</v>
+        <f t="shared" ref="H7:J7" si="3" xml:space="preserve"> HLOOKUP(H5,$D17:$J19,3,)</f>
+        <v>15000</v>
       </c>
       <c r="I7" s="8">
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="J7" s="8">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.3">
@@ -1119,7 +1138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1130,16 +1149,19 @@
         <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1152,14 +1174,17 @@
       <c r="G18" s="8">
         <v>5</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1172,10 +1197,13 @@
       <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>15000</v>
       </c>
     </row>
